--- a/data/clean_data/Tmall/2019-05-01bubble_data_Tmall.xlsx
+++ b/data/clean_data/Tmall/2019-05-01bubble_data_Tmall.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="516" yWindow="528" windowWidth="16032" windowHeight="6708" activeTab="5"/>
+    <workbookView xWindow="612" yWindow="588" windowWidth="21792" windowHeight="8652"/>
   </bookViews>
   <sheets>
     <sheet name="平台" sheetId="1" r:id="rId1"/>
@@ -15,12 +15,12 @@
     <sheet name="美妆个护" sheetId="6" r:id="rId6"/>
     <sheet name="服装鞋包" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="60">
   <si>
     <t>cid1_name</t>
   </si>
@@ -34,9 +34,6 @@
     <t>销售额</t>
   </si>
   <si>
-    <t>其他</t>
-  </si>
-  <si>
     <t>医药保健</t>
   </si>
   <si>
@@ -59,12 +56,6 @@
   </si>
   <si>
     <t>汽车相关</t>
-  </si>
-  <si>
-    <t>游戏话费</t>
-  </si>
-  <si>
-    <t>珠宝首饰</t>
   </si>
   <si>
     <t>生活服务</t>
@@ -576,11 +567,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="20.88671875" customWidth="1"/>
+    <col min="2" max="2" width="14.109375" customWidth="1"/>
+    <col min="3" max="3" width="16.88671875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
@@ -598,30 +596,30 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>2.9066569808945491E-2</v>
+        <v>0.1601848211907925</v>
       </c>
       <c r="C2">
-        <v>-0.62995087592012244</v>
+        <v>0.68293081018385138</v>
       </c>
       <c r="D2">
-        <v>74.65470182</v>
+        <v>411.41937768000003</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B3">
-        <v>2.525683849857583E-2</v>
+        <v>0.1326478536823758</v>
       </c>
       <c r="C3">
-        <v>0.68761855986488141</v>
+        <v>1.2950641603552091</v>
       </c>
       <c r="D3">
-        <v>64.869771679999999</v>
+        <v>340.69331292999999</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -629,153 +627,153 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>0.1601848211907925</v>
+        <v>7.8499017706160606E-2</v>
       </c>
       <c r="C4">
-        <v>0.68293081018385138</v>
+        <v>1.781747250466617</v>
       </c>
       <c r="D4">
-        <v>411.41937768000003</v>
+        <v>201.61721175</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B5">
-        <v>7.8499017706160606E-2</v>
+        <v>7.8272596239616285E-2</v>
       </c>
       <c r="C5">
-        <v>1.781747250466617</v>
+        <v>6.4015836973400262</v>
       </c>
       <c r="D5">
-        <v>201.61721175</v>
+        <v>201.03566989000001</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B6">
-        <v>4.0944358066272543E-2</v>
+        <v>7.4087019357055278E-2</v>
       </c>
       <c r="C6">
-        <v>1.1987293832162309</v>
+        <v>3.618554276316162</v>
       </c>
       <c r="D6">
-        <v>105.16166382</v>
+        <v>190.28541637999999</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>1.7079641365241479E-2</v>
+        <v>5.2796742106308088E-2</v>
       </c>
       <c r="C7">
-        <v>0.84720073385379857</v>
+        <v>0.78476064947415947</v>
       </c>
       <c r="D7">
-        <v>43.867423700000003</v>
+        <v>135.60337752000001</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B8">
-        <v>0.1326478536823758</v>
+        <v>4.0944358066272543E-2</v>
       </c>
       <c r="C8">
-        <v>1.2950641603552091</v>
+        <v>1.1987293832162309</v>
       </c>
       <c r="D8">
-        <v>340.69331292999999</v>
+        <v>105.16166382</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B9">
-        <v>5.2796742106308088E-2</v>
+        <v>3.6149575210068348E-2</v>
       </c>
       <c r="C9">
-        <v>0.78476064947415947</v>
+        <v>-0.3153901542617672</v>
       </c>
       <c r="D9">
-        <v>135.60337752000001</v>
+        <v>92.846723089999998</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>1.6061429144036118E-2</v>
+        <v>3.165813114717609E-2</v>
       </c>
       <c r="C10">
-        <v>1.282752243355848</v>
+        <v>5.4591071128534354</v>
       </c>
       <c r="D10">
-        <v>41.25224309</v>
+        <v>81.310879009999994</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="B11">
-        <v>4.8854395924964912E-2</v>
+        <v>2.525683849857583E-2</v>
       </c>
       <c r="C11">
-        <v>16.059769419051051</v>
+        <v>0.68761855986488141</v>
       </c>
       <c r="D11">
-        <v>125.47783878</v>
+        <v>64.869771679999999</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B12">
-        <v>0.15390843732098941</v>
+        <v>2.1945551785981569E-2</v>
       </c>
       <c r="C12">
-        <v>11.64968082107919</v>
+        <v>3.0043559291404018</v>
       </c>
       <c r="D12">
-        <v>395.29908659</v>
+        <v>56.365048770000001</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B13">
-        <v>2.1945551785981569E-2</v>
+        <v>1.7079641365241479E-2</v>
       </c>
       <c r="C13">
-        <v>3.0043559291404018</v>
+        <v>0.84720073385379857</v>
       </c>
       <c r="D13">
-        <v>56.365048770000001</v>
+        <v>43.867423700000003</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B14">
-        <v>3.165813114717609E-2</v>
+        <v>1.6061429144036118E-2</v>
       </c>
       <c r="C14">
-        <v>5.4591071128534354</v>
+        <v>1.282752243355848</v>
       </c>
       <c r="D14">
-        <v>81.310879009999994</v>
+        <v>41.25224309</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -783,58 +781,19 @@
         <v>17</v>
       </c>
       <c r="B15">
-        <v>7.4087019357055278E-2</v>
+        <v>2.5870214454395339E-3</v>
       </c>
       <c r="C15">
-        <v>3.618554276316162</v>
+        <v>6.6499377477754082</v>
       </c>
       <c r="D15">
-        <v>190.28541637999999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16">
-        <v>7.8272596239616285E-2</v>
-      </c>
-      <c r="C16">
-        <v>6.4015836973400262</v>
-      </c>
-      <c r="D16">
-        <v>201.03566989000001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17">
-        <v>3.6149575210068348E-2</v>
-      </c>
-      <c r="C17">
-        <v>-0.3153901542617672</v>
-      </c>
-      <c r="D17">
-        <v>92.846723089999998</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18">
-        <v>2.5870214454395339E-3</v>
-      </c>
-      <c r="C18">
-        <v>6.6499377477754082</v>
-      </c>
-      <c r="D18">
         <v>6.6445169100000001</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:D18">
+    <sortCondition descending="1" ref="D1"/>
+  </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -851,7 +810,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -865,7 +824,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B2">
         <v>4.4837040807663899E-3</v>
@@ -879,7 +838,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B3">
         <v>3.0315486690795771E-3</v>
@@ -893,7 +852,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B4">
         <v>2.2907456763226891E-2</v>
@@ -907,7 +866,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B5">
         <v>3.5812520066511201E-4</v>
@@ -935,7 +894,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -949,7 +908,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B2">
         <v>3.8999504931653488E-2</v>
@@ -963,7 +922,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B3">
         <v>9.8260236047770094E-3</v>
@@ -977,7 +936,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B4">
         <v>9.0824044573016224E-3</v>
@@ -991,7 +950,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B5">
         <v>2.775726249148789E-2</v>
@@ -1005,7 +964,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B6">
         <v>6.7942405161250455E-2</v>
@@ -1019,7 +978,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B7">
         <v>4.0917602239949752E-3</v>
@@ -1047,7 +1006,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -1061,7 +1020,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B2">
         <v>2.258676315614706E-2</v>
@@ -1075,7 +1034,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B3">
         <v>8.8308137214381452E-3</v>
@@ -1089,7 +1048,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B4">
         <v>6.5543024751209024E-3</v>
@@ -1103,7 +1062,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B5">
         <v>9.1025192942139777E-3</v>
@@ -1117,7 +1076,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B6">
         <v>3.5562466556132197E-2</v>
@@ -1131,7 +1090,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B7">
         <v>6.6991279131207407E-2</v>
@@ -1145,7 +1104,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B8">
         <v>5.7793934351440604E-3</v>
@@ -1173,7 +1132,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -1187,7 +1146,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B2">
         <v>1.786311663939574E-2</v>
@@ -1201,7 +1160,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B3">
         <v>6.7729104978062477E-3</v>
@@ -1215,7 +1174,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B4">
         <v>0.1347622230471601</v>
@@ -1229,7 +1188,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B5">
         <v>2.0594531061904741E-2</v>
@@ -1243,7 +1202,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B6">
         <v>7.5744680562967858E-3</v>
@@ -1265,19 +1224,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="2" max="2" width="10.77734375" customWidth="1"/>
-    <col min="3" max="3" width="14.21875" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -1291,133 +1244,133 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="B2">
-        <v>2.028889436502377E-2</v>
+        <v>1.882645851888329E-3</v>
       </c>
       <c r="C2">
-        <v>4.1073170797064193</v>
+        <v>-0.4085948583114557</v>
       </c>
       <c r="D2">
-        <v>4.0787914700000014</v>
+        <v>0.37847897000000003</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B3">
-        <v>1.26918002232942E-2</v>
+        <v>1.1354237291566051E-3</v>
       </c>
       <c r="C3">
-        <v>3.7862785714198628</v>
+        <v>0.94531412989676378</v>
       </c>
       <c r="D3">
-        <v>2.5515045600000001</v>
+        <v>0.22826067</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="B4">
-        <v>8.5755810446141913E-3</v>
+        <v>1.26918002232942E-2</v>
       </c>
       <c r="C4">
-        <v>1.3425903279043869</v>
+        <v>3.7862785714198628</v>
       </c>
       <c r="D4">
-        <v>1.7239976800000001</v>
+        <v>2.5515045600000001</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="B5">
-        <v>5.9531173281579478E-3</v>
+        <v>2.7129956106716258E-3</v>
       </c>
       <c r="C5">
-        <v>0.47434489875703872</v>
+        <v>0.85912782283966416</v>
       </c>
       <c r="D5">
-        <v>1.1967889300000001</v>
+        <v>0.54540889000000004</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B6">
-        <v>4.9355323388277743E-3</v>
+        <v>2.028889436502377E-2</v>
       </c>
       <c r="C6">
-        <v>0.57291002035630667</v>
+        <v>4.1073170797064193</v>
       </c>
       <c r="D6">
-        <v>0.99221805000000007</v>
+        <v>4.0787914700000014</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B7">
-        <v>4.5571974391474491E-3</v>
+        <v>4.9355323388277743E-3</v>
       </c>
       <c r="C7">
-        <v>0.32799951063896421</v>
+        <v>0.57291002035630667</v>
       </c>
       <c r="D7">
-        <v>0.91615924000000004</v>
+        <v>0.99221805000000007</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B8">
-        <v>3.5088480088432731E-3</v>
+        <v>4.5571974391474491E-3</v>
       </c>
       <c r="C8">
-        <v>0.38426825058274772</v>
+        <v>0.32799951063896421</v>
       </c>
       <c r="D8">
-        <v>0.70540361000000007</v>
+        <v>0.91615924000000004</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B9">
-        <v>2.7129956106716258E-3</v>
+        <v>5.9531173281579478E-3</v>
       </c>
       <c r="C9">
-        <v>0.85912782283966416</v>
+        <v>0.47434489875703872</v>
       </c>
       <c r="D9">
-        <v>0.54540889000000004</v>
+        <v>1.1967889300000001</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B10">
-        <v>1.882645851888329E-3</v>
+        <v>8.5755810446141913E-3</v>
       </c>
       <c r="C10">
-        <v>-0.4085948583114557</v>
+        <v>1.3425903279043869</v>
       </c>
       <c r="D10">
-        <v>0.37847897000000003</v>
+        <v>1.7239976800000001</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B11">
         <v>1.4494532744335361E-3</v>
@@ -1431,22 +1384,19 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B12">
-        <v>1.1354237291566051E-3</v>
+        <v>3.5088480088432731E-3</v>
       </c>
       <c r="C12">
-        <v>0.94531412989676378</v>
+        <v>0.38426825058274772</v>
       </c>
       <c r="D12">
-        <v>0.22826067</v>
+        <v>0.70540361000000007</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:D12">
-    <sortCondition descending="1" ref="D1"/>
-  </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1456,19 +1406,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="2" max="2" width="14.44140625" customWidth="1"/>
-    <col min="3" max="3" width="18.6640625" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -1482,44 +1426,44 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B2">
-        <v>3.2822607740168902E-2</v>
+        <v>2.0263065455054631E-3</v>
       </c>
       <c r="C2">
-        <v>1.2045894457452291</v>
+        <v>1.3007925155005831</v>
       </c>
       <c r="D2">
-        <v>11.18244297</v>
+        <v>0.69034909</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B3">
-        <v>1.360514416950814E-2</v>
+        <v>2.7273869628046299E-4</v>
       </c>
       <c r="C3">
-        <v>1.178420744261016</v>
+        <v>0.39862495006537052</v>
       </c>
       <c r="D3">
-        <v>4.6351816400000008</v>
+        <v>9.292025000000001E-2</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B4">
-        <v>4.7505142560063584E-3</v>
+        <v>1.360514416950814E-2</v>
       </c>
       <c r="C4">
-        <v>1.2245535796754561</v>
+        <v>1.178420744261016</v>
       </c>
       <c r="D4">
-        <v>1.61846844</v>
+        <v>4.6351816400000008</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1527,75 +1471,72 @@
         <v>55</v>
       </c>
       <c r="B5">
-        <v>2.0263065455054631E-3</v>
+        <v>3.2822607740168902E-2</v>
       </c>
       <c r="C5">
-        <v>1.3007925155005831</v>
+        <v>1.2045894457452291</v>
       </c>
       <c r="D5">
-        <v>0.69034909</v>
+        <v>11.18244297</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B6">
-        <v>1.4391830464272799E-3</v>
+        <v>4.7505142560063584E-3</v>
       </c>
       <c r="C6">
-        <v>0.27587493782868439</v>
+        <v>1.2245535796754561</v>
       </c>
       <c r="D6">
-        <v>0.49032004000000001</v>
+        <v>1.61846844</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B7">
-        <v>2.7273869628046299E-4</v>
+        <v>2.4825993581323449E-4</v>
       </c>
       <c r="C7">
-        <v>0.39862495006537052</v>
+        <v>0.29741468106996072</v>
       </c>
       <c r="D7">
-        <v>9.292025000000001E-2</v>
+        <v>8.4580500000000003E-2</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B8">
-        <v>2.4825993581323449E-4</v>
+        <v>2.4339415202152091E-4</v>
       </c>
       <c r="C8">
-        <v>0.29741468106996072</v>
+        <v>-0.56146554900866597</v>
       </c>
       <c r="D8">
-        <v>8.4580500000000003E-2</v>
+        <v>8.2922759999999998E-2</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B9">
-        <v>2.4339415202152091E-4</v>
+        <v>1.4391830464272799E-3</v>
       </c>
       <c r="C9">
-        <v>-0.56146554900866597</v>
+        <v>0.27587493782868439</v>
       </c>
       <c r="D9">
-        <v>8.2922759999999998E-2</v>
+        <v>0.49032004000000001</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:D9">
-    <sortCondition descending="1" ref="D1"/>
-  </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
